--- a/Processor Pinout/Project Design - EVB.xlsx
+++ b/Processor Pinout/Project Design - EVB.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A475C-1F01-492D-82DD-A306B5108888}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC241D1-8392-40AC-810F-EAB7ECEF3B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="-120" windowWidth="27420" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E70 Pinout" sheetId="5" r:id="rId1"/>
     <sheet name="Power Budget" sheetId="1" r:id="rId2"/>
     <sheet name="Impedance Matching" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="758">
   <si>
     <t>Power</t>
   </si>
@@ -2268,6 +2270,51 @@
   </si>
   <si>
     <t>TIOB4 (QDEC1 Idx)</t>
+  </si>
+  <si>
+    <t>AFE0_AD1</t>
+  </si>
+  <si>
+    <t>AFE1_AD1/AFE1_AD10</t>
+  </si>
+  <si>
+    <t>AFE1_AD4</t>
+  </si>
+  <si>
+    <t>AFE1_AD2</t>
+  </si>
+  <si>
+    <t>AFE0_AD4 (PC29)</t>
+  </si>
+  <si>
+    <t>PA16, PA21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA1, PA24, </t>
+  </si>
+  <si>
+    <t>PB13, PC5, PC29</t>
+  </si>
+  <si>
+    <t>PC6, PD0</t>
+  </si>
+  <si>
+    <t>PA15, PC13, PE0</t>
+  </si>
+  <si>
+    <t>PC15, PE1</t>
+  </si>
+  <si>
+    <t>PA0, PA23, PE3</t>
+  </si>
+  <si>
+    <t>EVB Pins</t>
+  </si>
+  <si>
+    <t>PD27, PE4</t>
+  </si>
+  <si>
+    <t>PC13/PE0</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2377,6 +2424,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2409,7 +2462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2504,6 +2557,30 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2513,6 +2590,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9900"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFFCCFF"/>
@@ -2522,7 +2600,6 @@
       <color rgb="FFFFE5E5"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFCCCCFF"/>
-      <color rgb="FFCCFFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2799,12 +2876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C774B8AE-46F9-45F2-BB4D-857F59D4E1B2}">
-  <dimension ref="A1:AH137"/>
+  <dimension ref="A1:AM137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,14 +2914,19 @@
     <col min="26" max="26" width="8" customWidth="1"/>
     <col min="27" max="27" width="2.5703125" customWidth="1"/>
     <col min="28" max="28" width="15.85546875" customWidth="1"/>
-    <col min="29" max="29" width="10" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" customWidth="1"/>
+    <col min="34" max="34" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
@@ -2913,8 +2996,9 @@
       <c r="Z1" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AM1" s="50"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2979,7 +3063,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3044,7 +3128,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3100,7 +3184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3159,10 +3243,10 @@
         <v>621</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3221,10 +3305,10 @@
         <v>621</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -3286,7 +3370,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>608</v>
       </c>
@@ -3348,7 +3432,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
@@ -3407,8 +3491,9 @@
         <v>70</v>
       </c>
       <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM10" s="52"/>
+    </row>
+    <row r="11" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
@@ -3467,8 +3552,9 @@
         <v>76</v>
       </c>
       <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AM11" s="52"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -3533,7 +3619,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3598,7 +3684,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3660,7 +3746,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -3722,7 +3808,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -3784,7 +3870,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -3840,7 +3926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -3871,10 +3957,10 @@
       <c r="J18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="40" t="s">
+      <c r="K18" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="44" t="s">
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -3896,7 +3982,7 @@
         <v>35</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="V18" s="18"/>
       <c r="W18" s="34" t="s">
@@ -3911,8 +3997,13 @@
       <c r="AF18" s="37"/>
       <c r="AG18" s="37"/>
       <c r="AH18" s="37"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="53"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -3943,10 +4034,10 @@
       <c r="J19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="41" t="s">
+      <c r="K19" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="43" t="s">
         <v>730</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -3980,25 +4071,40 @@
         <v>618</v>
       </c>
       <c r="AC19" s="33" t="s">
-        <v>625</v>
+        <v>755</v>
       </c>
       <c r="AD19" s="33" t="s">
         <v>654</v>
       </c>
       <c r="AE19" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="AF19" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="AF19" s="33" t="s">
+      <c r="AG19" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH19" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="AG19" s="33" t="s">
+      <c r="AI19" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ19" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="AH19" s="33" t="s">
+      <c r="AK19" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL19" s="33" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM19" s="49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -4059,19 +4165,18 @@
       <c r="AB20" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="AC20" s="18"/>
+      <c r="AC20" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="AD20" s="29" t="s">
         <v>679</v>
       </c>
-      <c r="AE20" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE20" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG20" s="50"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -4132,19 +4237,35 @@
       <c r="AB21" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="AC21" s="18"/>
+      <c r="AC21" s="18" t="s">
+        <v>748</v>
+      </c>
       <c r="AD21" s="29" t="s">
         <v>680</v>
       </c>
-      <c r="AE21" s="39" t="s">
+      <c r="AE21" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF21" s="44" t="s">
         <v>730</v>
       </c>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18" t="s">
+      <c r="AG21" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH21" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI21" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK21" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4205,19 +4326,39 @@
       <c r="AB22" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="AC22" s="18"/>
+      <c r="AC22" s="18" t="s">
+        <v>754</v>
+      </c>
       <c r="AD22" s="29" t="s">
         <v>681</v>
       </c>
-      <c r="AE22" s="39" t="s">
+      <c r="AE22" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF22" s="44" t="s">
         <v>731</v>
       </c>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18" t="s">
+      <c r="AG22" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH22" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL22" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM22" s="44" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -4278,19 +4419,29 @@
       <c r="AB23" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="18" t="s">
+        <v>749</v>
+      </c>
       <c r="AD23" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="AE23" s="39" t="s">
+      <c r="AE23" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF23" s="44" t="s">
         <v>732</v>
       </c>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18" t="s">
+      <c r="AG23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ23" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK23" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -4312,7 +4463,7 @@
       <c r="G24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="32" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -4357,24 +4508,41 @@
       <c r="AB24" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="AC24" s="18"/>
+      <c r="AC24" s="18" t="s">
+        <v>750</v>
+      </c>
       <c r="AD24" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="AE24" s="41" t="s">
+      <c r="AE24" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF24" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="AF24" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="AG24" s="18" t="s">
+      <c r="AG24" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH24" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="AI24" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ24" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AH24" s="40" t="s">
+      <c r="AK24" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL24" s="39" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM24" s="44" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -4432,21 +4600,29 @@
       <c r="AB25" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="AC25" s="18"/>
+      <c r="AC25" s="18" t="s">
+        <v>751</v>
+      </c>
       <c r="AD25" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="AE25" s="41" t="s">
+      <c r="AE25" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF25" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="AF25" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="AG25" s="18" t="s">
+      <c r="AG25" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="AJ25" s="18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK25" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -4513,19 +4689,19 @@
       <c r="AB26" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="AC26" s="18"/>
+      <c r="AC26" s="18" t="s">
+        <v>551</v>
+      </c>
       <c r="AD26" s="18"/>
-      <c r="AE26" s="41" t="s">
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="43" t="s">
         <v>726</v>
       </c>
-      <c r="AF26" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="AH26" s="40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG26" s="43" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -4592,19 +4768,31 @@
       <c r="AB27" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="AC27" s="18"/>
+      <c r="AC27" s="18" t="s">
+        <v>756</v>
+      </c>
       <c r="AD27" s="18"/>
-      <c r="AE27" s="40" t="s">
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="40" t="s">
         <v>736</v>
       </c>
-      <c r="AF27" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG27" s="18" t="s">
+      <c r="AG27" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH27" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="AI27" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ27" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK27" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -4668,19 +4856,37 @@
       <c r="AB28" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="AC28" s="18"/>
+      <c r="AC28" s="18" t="s">
+        <v>752</v>
+      </c>
       <c r="AD28" s="18"/>
-      <c r="AE28" s="40" t="s">
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="AF28" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AG28" s="18" t="s">
+      <c r="AG28" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH28" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="AI28" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="AJ28" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK28" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL28" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM28" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -4744,19 +4950,31 @@
       <c r="AB29" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="AC29" s="18"/>
+      <c r="AC29" s="18" t="s">
+        <v>753</v>
+      </c>
       <c r="AD29" s="18"/>
-      <c r="AE29" s="40" t="s">
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="39" t="s">
         <v>738</v>
       </c>
-      <c r="AF29" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG29" s="18" t="s">
+      <c r="AG29" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH29" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="AI29" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="AJ29" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK29" s="18" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -4826,11 +5044,13 @@
       <c r="AD30" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="AE30" s="30" t="s">
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="30" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG30" s="51"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -4900,11 +5120,13 @@
       <c r="AD31" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="AE31" s="30" t="s">
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG31" s="51"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>590</v>
       </c>
@@ -4966,7 +5188,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -5028,7 +5250,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -5090,7 +5312,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -5152,7 +5374,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -5214,7 +5436,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -5276,7 +5498,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -5338,7 +5560,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -5399,11 +5621,9 @@
       <c r="V39" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="W39" s="34" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>210</v>
       </c>
@@ -5465,8 +5685,9 @@
         <v>686</v>
       </c>
       <c r="W40" s="8"/>
-    </row>
-    <row r="41" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM40" s="52"/>
+    </row>
+    <row r="41" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>215</v>
       </c>
@@ -5528,8 +5749,9 @@
         <v>687</v>
       </c>
       <c r="W41" s="8"/>
-    </row>
-    <row r="42" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM41" s="52"/>
+    </row>
+    <row r="42" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>219</v>
       </c>
@@ -5591,8 +5813,9 @@
         <v>688</v>
       </c>
       <c r="W42" s="8"/>
-    </row>
-    <row r="43" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM42" s="52"/>
+    </row>
+    <row r="43" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>222</v>
       </c>
@@ -5651,8 +5874,9 @@
         <v>224</v>
       </c>
       <c r="W43" s="8"/>
-    </row>
-    <row r="44" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM43" s="52"/>
+    </row>
+    <row r="44" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>226</v>
       </c>
@@ -5711,8 +5935,9 @@
         <v>228</v>
       </c>
       <c r="W44" s="8"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AM44" s="52"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -5768,7 +5993,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>234</v>
       </c>
@@ -5833,7 +6058,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>576</v>
       </c>
@@ -5892,7 +6117,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>572</v>
       </c>
@@ -6186,6 +6411,9 @@
       <c r="V52" s="18" t="s">
         <v>733</v>
       </c>
+      <c r="W52" s="34" t="s">
+        <v>644</v>
+      </c>
       <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -7627,7 +7855,7 @@
       <c r="K76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L76" s="40" t="s">
+      <c r="L76" s="39" t="s">
         <v>494</v>
       </c>
       <c r="M76" s="1" t="s">
@@ -7683,7 +7911,7 @@
       <c r="G77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="42" t="s">
         <v>492</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -7716,9 +7944,6 @@
       <c r="R77" t="s">
         <v>35</v>
       </c>
-      <c r="U77" s="18"/>
-      <c r="V77" s="18"/>
-      <c r="W77" s="34"/>
       <c r="Y77" t="s">
         <v>721</v>
       </c>
@@ -9280,15 +9505,6 @@
       <c r="R103" t="s">
         <v>35</v>
       </c>
-      <c r="U103" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="V103" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="W103" s="34" t="s">
-        <v>644</v>
-      </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -9469,6 +9685,13 @@
       <c r="R106" t="s">
         <v>35</v>
       </c>
+      <c r="U106" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="V106" s="18"/>
+      <c r="W106" s="34" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -9728,7 +9951,7 @@
       <c r="G111" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="32" t="s">
         <v>439</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -9836,7 +10059,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>435</v>
       </c>
@@ -9895,7 +10118,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>432</v>
       </c>
@@ -9951,17 +10174,16 @@
         <v>35</v>
       </c>
       <c r="U114" s="18" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="V114" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="W114"/>
-      <c r="Y114" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W114" s="34" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>428</v>
       </c>
@@ -10026,7 +10248,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>425</v>
       </c>
@@ -10082,7 +10304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>366</v>
       </c>
@@ -10138,8 +10360,9 @@
         <v>34</v>
       </c>
       <c r="W117" s="8"/>
-    </row>
-    <row r="118" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM117" s="52"/>
+    </row>
+    <row r="118" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>368</v>
       </c>
@@ -10198,8 +10421,9 @@
         <v>369</v>
       </c>
       <c r="W118" s="8"/>
-    </row>
-    <row r="119" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM118" s="52"/>
+    </row>
+    <row r="119" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>371</v>
       </c>
@@ -10258,8 +10482,9 @@
         <v>370</v>
       </c>
       <c r="W119" s="8"/>
-    </row>
-    <row r="120" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM119" s="52"/>
+    </row>
+    <row r="120" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>373</v>
       </c>
@@ -10315,8 +10540,9 @@
         <v>34</v>
       </c>
       <c r="W120" s="8"/>
-    </row>
-    <row r="121" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM120" s="52"/>
+    </row>
+    <row r="121" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>376</v>
       </c>
@@ -10375,8 +10601,9 @@
         <v>377</v>
       </c>
       <c r="W121" s="8"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AM121" s="52"/>
+    </row>
+    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>379</v>
       </c>
@@ -10432,7 +10659,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="123" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>24</v>
       </c>
@@ -10488,8 +10715,9 @@
         <v>34</v>
       </c>
       <c r="W123" s="8"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AM123" s="52"/>
+    </row>
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>382</v>
       </c>
@@ -10545,7 +10773,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="125" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>383</v>
       </c>
@@ -10601,8 +10829,9 @@
         <v>34</v>
       </c>
       <c r="W125" s="8"/>
-    </row>
-    <row r="126" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM125" s="52"/>
+    </row>
+    <row r="126" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>385</v>
       </c>
@@ -10658,8 +10887,9 @@
         <v>34</v>
       </c>
       <c r="W126" s="8"/>
-    </row>
-    <row r="127" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM126" s="52"/>
+    </row>
+    <row r="127" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>387</v>
       </c>
@@ -10715,8 +10945,9 @@
         <v>34</v>
       </c>
       <c r="W127" s="8"/>
-    </row>
-    <row r="128" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM127" s="52"/>
+    </row>
+    <row r="128" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
         <v>389</v>
       </c>
@@ -10778,8 +11009,9 @@
         <v>637</v>
       </c>
       <c r="W128" s="8"/>
-    </row>
-    <row r="129" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM128" s="52"/>
+    </row>
+    <row r="129" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
         <v>391</v>
       </c>
@@ -10841,8 +11073,9 @@
         <v>636</v>
       </c>
       <c r="W129" s="8"/>
-    </row>
-    <row r="130" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM129" s="52"/>
+    </row>
+    <row r="130" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>370</v>
       </c>
@@ -10901,8 +11134,9 @@
         <v>370</v>
       </c>
       <c r="W130" s="8"/>
-    </row>
-    <row r="131" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM130" s="52"/>
+    </row>
+    <row r="131" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>393</v>
       </c>
@@ -10961,8 +11195,9 @@
         <v>370</v>
       </c>
       <c r="W131" s="8"/>
-    </row>
-    <row r="132" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM131" s="52"/>
+    </row>
+    <row r="132" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>394</v>
       </c>
@@ -11021,8 +11256,9 @@
         <v>370</v>
       </c>
       <c r="W132" s="8"/>
-    </row>
-    <row r="133" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM132" s="52"/>
+    </row>
+    <row r="133" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>396</v>
       </c>
@@ -11081,8 +11317,9 @@
         <v>370</v>
       </c>
       <c r="W133" s="8"/>
-    </row>
-    <row r="134" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM133" s="52"/>
+    </row>
+    <row r="134" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>399</v>
       </c>
@@ -11141,8 +11378,9 @@
         <v>370</v>
       </c>
       <c r="W134" s="8"/>
-    </row>
-    <row r="135" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM134" s="52"/>
+    </row>
+    <row r="135" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>401</v>
       </c>
@@ -11199,8 +11437,9 @@
       </c>
       <c r="U135" s="10"/>
       <c r="W135" s="8"/>
-    </row>
-    <row r="136" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM135" s="52"/>
+    </row>
+    <row r="136" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>403</v>
       </c>
@@ -11257,8 +11496,9 @@
       </c>
       <c r="U136" s="10"/>
       <c r="W136" s="8"/>
-    </row>
-    <row r="137" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM136" s="52"/>
+    </row>
+    <row r="137" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>404</v>
       </c>
@@ -11315,6 +11555,7 @@
       </c>
       <c r="U137" s="10"/>
       <c r="W137" s="8"/>
+      <c r="AM137" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
